--- a/data/trans_bre/P19_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,32%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>444,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>-2,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>-6,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>-0,06%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,26%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-7,03%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 8,26</t>
+          <t>-9,71; 5,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 13,14</t>
+          <t>-12,58; -0,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,89</t>
+          <t>-4,85; 5,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 8,46</t>
+          <t>-7,69; 0,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 11,35</t>
+          <t>-13,51; -0,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 264,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,47; 1800,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 104,57</t>
+          <t>-9,96; 6,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 280,19</t>
+          <t>-12,8; -0,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 242,1</t>
+          <t>-5,15; 5,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 0,3</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; -0,68</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>130,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>65,93%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>-5,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>54,91%</t>
+          <t>-2,64%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 7,79</t>
+          <t>-11,4; -0,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,47</t>
+          <t>-10,3; -1,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,9</t>
+          <t>-5,34; 0,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 4,34</t>
+          <t>-3,93; 3,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 8,4</t>
+          <t>-3,8; 3,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,79; 155,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,98; 304,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 193,21</t>
+          <t>-12,11; -0,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 94,32</t>
+          <t>-10,48; -1,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 147,59</t>
+          <t>-5,46; 0,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 3,38</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 4,03</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>-7,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>111,98%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>-7,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>68,13%</t>
+          <t>-3,44%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,92%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,35%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 8,96</t>
+          <t>-12,22; -2,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,8</t>
+          <t>-5,95; 2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 4,96</t>
+          <t>-6,15; -0,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,34</t>
+          <t>-4,67; 3,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 7,4</t>
+          <t>-7,07; 1,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,48; 287,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,5; 267,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 152,35</t>
+          <t>-12,66; -2,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-36,51; 104,46</t>
+          <t>-6,13; 2,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 314,25</t>
+          <t>-6,34; -0,34</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 3,87</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,33; 1,21</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>148,44%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>-3,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>66,45%</t>
+          <t>-1,91%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,56%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,68</t>
+          <t>-6,11; -1,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,32</t>
+          <t>-7,45; -1,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,72</t>
+          <t>-5,72; 2,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,84</t>
+          <t>-8,78; 0,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,98; 139,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,84; 275,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 102,9</t>
+          <t>-6,41; -1,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 79,31</t>
+          <t>-7,68; -2,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,93; 130,95</t>
+          <t>-5,96; 2,74</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 0,2</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-4,57</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,47</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-3,14</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-4,83%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-4,62%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,32%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; -2,56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; -2,68</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; -0,41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 0,83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; -0,75</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; -2,83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; -2,82</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; -0,43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 0,9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,73; -0,8</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
